--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Lgi4-Adam11.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Lgi4-Adam11.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.09015499999999999</v>
+        <v>0.06754433333333333</v>
       </c>
       <c r="H2">
-        <v>0.270465</v>
+        <v>0.202633</v>
       </c>
       <c r="I2">
-        <v>0.007972321704912232</v>
+        <v>0.006855017925354449</v>
       </c>
       <c r="J2">
-        <v>0.007972321704912232</v>
+        <v>0.006855017925354449</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.3112613333333333</v>
+        <v>0.2679253333333333</v>
       </c>
       <c r="N2">
-        <v>0.9337839999999999</v>
+        <v>0.8037759999999999</v>
       </c>
       <c r="O2">
-        <v>0.1380581838428943</v>
+        <v>0.1226600350746756</v>
       </c>
       <c r="P2">
-        <v>0.1380581838428943</v>
+        <v>0.1226600350746756</v>
       </c>
       <c r="Q2">
-        <v>0.02806176550666666</v>
+        <v>0.01809683802311111</v>
       </c>
       <c r="R2">
-        <v>0.25255588956</v>
+        <v>0.162871542208</v>
       </c>
       <c r="S2">
-        <v>0.001100644255591469</v>
+        <v>0.0008408367391615066</v>
       </c>
       <c r="T2">
-        <v>0.001100644255591469</v>
+        <v>0.0008408367391615068</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.09015499999999999</v>
+        <v>0.06754433333333333</v>
       </c>
       <c r="H3">
-        <v>0.270465</v>
+        <v>0.202633</v>
       </c>
       <c r="I3">
-        <v>0.007972321704912232</v>
+        <v>0.006855017925354449</v>
       </c>
       <c r="J3">
-        <v>0.007972321704912232</v>
+        <v>0.006855017925354449</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>2.143456</v>
       </c>
       <c r="O3">
-        <v>0.3169058824172986</v>
+        <v>0.327101565785771</v>
       </c>
       <c r="P3">
-        <v>0.3169058824172986</v>
+        <v>0.327101565785771</v>
       </c>
       <c r="Q3">
-        <v>0.06441442522666666</v>
+        <v>0.04825943551644444</v>
       </c>
       <c r="R3">
-        <v>0.5797298270399999</v>
+        <v>0.434334919648</v>
       </c>
       <c r="S3">
-        <v>0.002526475644809793</v>
+        <v>0.002242287096872967</v>
       </c>
       <c r="T3">
-        <v>0.002526475644809793</v>
+        <v>0.002242287096872968</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.09015499999999999</v>
+        <v>0.06754433333333333</v>
       </c>
       <c r="H4">
-        <v>0.270465</v>
+        <v>0.202633</v>
       </c>
       <c r="I4">
-        <v>0.007972321704912232</v>
+        <v>0.006855017925354449</v>
       </c>
       <c r="J4">
-        <v>0.007972321704912232</v>
+        <v>0.006855017925354449</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.194243666666667</v>
+        <v>1.145196333333333</v>
       </c>
       <c r="N4">
-        <v>3.582731</v>
+        <v>3.435589</v>
       </c>
       <c r="O4">
-        <v>0.529699946730332</v>
+        <v>0.5242871984759059</v>
       </c>
       <c r="P4">
-        <v>0.529699946730332</v>
+        <v>0.5242871984759059</v>
       </c>
       <c r="Q4">
-        <v>0.1076670377683333</v>
+        <v>0.07735152287077779</v>
       </c>
       <c r="R4">
-        <v>0.9690033399149998</v>
+        <v>0.696163705837</v>
       </c>
       <c r="S4">
-        <v>0.004222938382409079</v>
+        <v>0.0035939981435862</v>
       </c>
       <c r="T4">
-        <v>0.004222938382409079</v>
+        <v>0.0035939981435862</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.06754433333333333</v>
+      </c>
+      <c r="H5">
+        <v>0.202633</v>
+      </c>
+      <c r="I5">
+        <v>0.006855017925354449</v>
+      </c>
+      <c r="J5">
+        <v>0.006855017925354449</v>
+      </c>
+      <c r="K5">
         <v>2</v>
       </c>
-      <c r="F5">
+      <c r="L5">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G5">
-        <v>0.09015499999999999</v>
-      </c>
-      <c r="H5">
-        <v>0.270465</v>
-      </c>
-      <c r="I5">
-        <v>0.007972321704912232</v>
-      </c>
-      <c r="J5">
-        <v>0.007972321704912232</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M5">
-        <v>0.034576</v>
+        <v>0.05668500000000001</v>
       </c>
       <c r="N5">
-        <v>0.103728</v>
+        <v>0.170055</v>
       </c>
       <c r="O5">
-        <v>0.01533598700947514</v>
+        <v>0.02595120066364754</v>
       </c>
       <c r="P5">
-        <v>0.01533598700947514</v>
+        <v>0.02595120066364754</v>
       </c>
       <c r="Q5">
-        <v>0.00311719928</v>
+        <v>0.003828750535</v>
       </c>
       <c r="R5">
-        <v>0.02805479352</v>
+        <v>0.03445875481500001</v>
       </c>
       <c r="S5">
-        <v>0.0001222634221018907</v>
+        <v>0.0001778959457337741</v>
       </c>
       <c r="T5">
-        <v>0.0001222634221018907</v>
+        <v>0.0001778959457337741</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,40 +791,40 @@
         <v>22.982727</v>
       </c>
       <c r="I6">
-        <v>0.6774469646725914</v>
+        <v>0.7774992501642265</v>
       </c>
       <c r="J6">
-        <v>0.6774469646725914</v>
+        <v>0.7774992501642265</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.3112613333333333</v>
+        <v>0.2679253333333333</v>
       </c>
       <c r="N6">
-        <v>0.9337839999999999</v>
+        <v>0.8037759999999999</v>
       </c>
       <c r="O6">
-        <v>0.1380581838428943</v>
+        <v>0.1226600350746756</v>
       </c>
       <c r="P6">
-        <v>0.1380581838428943</v>
+        <v>0.1226600350746756</v>
       </c>
       <c r="Q6">
-        <v>2.384544749885334</v>
+        <v>2.052551597461334</v>
       </c>
       <c r="R6">
-        <v>21.460902748968</v>
+        <v>18.472964377152</v>
       </c>
       <c r="S6">
-        <v>0.09352709759257931</v>
+        <v>0.09536808529567799</v>
       </c>
       <c r="T6">
-        <v>0.09352709759257931</v>
+        <v>0.09536808529567802</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>22.982727</v>
       </c>
       <c r="I7">
-        <v>0.6774469646725914</v>
+        <v>0.7774992501642265</v>
       </c>
       <c r="J7">
-        <v>0.6774469646725914</v>
+        <v>0.7774992501642265</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>2.143456</v>
       </c>
       <c r="O7">
-        <v>0.3169058824172986</v>
+        <v>0.327101565785771</v>
       </c>
       <c r="P7">
-        <v>0.3169058824172986</v>
+        <v>0.327101565785771</v>
       </c>
       <c r="Q7">
         <v>5.473607120501334</v>
@@ -883,10 +883,10 @@
         <v>49.26246408451201</v>
       </c>
       <c r="S7">
-        <v>0.214686928130488</v>
+        <v>0.2543212221259813</v>
       </c>
       <c r="T7">
-        <v>0.2146869281304881</v>
+        <v>0.2543212221259814</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>22.982727</v>
       </c>
       <c r="I8">
-        <v>0.6774469646725914</v>
+        <v>0.7774992501642265</v>
       </c>
       <c r="J8">
-        <v>0.6774469646725914</v>
+        <v>0.7774992501642265</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.194243666666667</v>
+        <v>1.145196333333333</v>
       </c>
       <c r="N8">
-        <v>3.582731</v>
+        <v>3.435589</v>
       </c>
       <c r="O8">
-        <v>0.529699946730332</v>
+        <v>0.5242871984759059</v>
       </c>
       <c r="P8">
-        <v>0.529699946730332</v>
+        <v>0.5242871984759059</v>
       </c>
       <c r="Q8">
-        <v>9.148992054159669</v>
+        <v>8.773244896800335</v>
       </c>
       <c r="R8">
-        <v>82.34092848743701</v>
+        <v>78.95920407120302</v>
       </c>
       <c r="S8">
-        <v>0.3588436210996968</v>
+        <v>0.4076329036857198</v>
       </c>
       <c r="T8">
-        <v>0.3588436210996968</v>
+        <v>0.4076329036857198</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,40 +977,40 @@
         <v>22.982727</v>
       </c>
       <c r="I9">
-        <v>0.6774469646725914</v>
+        <v>0.7774992501642265</v>
       </c>
       <c r="J9">
-        <v>0.6774469646725914</v>
+        <v>0.7774992501642265</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.034576</v>
+        <v>0.05668500000000001</v>
       </c>
       <c r="N9">
-        <v>0.103728</v>
+        <v>0.170055</v>
       </c>
       <c r="O9">
-        <v>0.01533598700947514</v>
+        <v>0.02595120066364754</v>
       </c>
       <c r="P9">
-        <v>0.01533598700947514</v>
+        <v>0.02595120066364754</v>
       </c>
       <c r="Q9">
-        <v>0.264883589584</v>
+        <v>0.4342586266650001</v>
       </c>
       <c r="R9">
-        <v>2.383952306256</v>
+        <v>3.908327639985001</v>
       </c>
       <c r="S9">
-        <v>0.01038931784982723</v>
+        <v>0.02017703905684734</v>
       </c>
       <c r="T9">
-        <v>0.01038931784982723</v>
+        <v>0.02017703905684734</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.459828333333334</v>
+        <v>1.941983333333333</v>
       </c>
       <c r="H10">
-        <v>10.379485</v>
+        <v>5.825949999999999</v>
       </c>
       <c r="I10">
-        <v>0.3059493596262398</v>
+        <v>0.1970902650714284</v>
       </c>
       <c r="J10">
-        <v>0.3059493596262398</v>
+        <v>0.1970902650714283</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.3112613333333333</v>
+        <v>0.2679253333333333</v>
       </c>
       <c r="N10">
-        <v>0.9337839999999999</v>
+        <v>0.8037759999999999</v>
       </c>
       <c r="O10">
-        <v>0.1380581838428943</v>
+        <v>0.1226600350746756</v>
       </c>
       <c r="P10">
-        <v>0.1380581838428943</v>
+        <v>0.1226600350746756</v>
       </c>
       <c r="Q10">
-        <v>1.076910780137778</v>
+        <v>0.520306531911111</v>
       </c>
       <c r="R10">
-        <v>9.69219702124</v>
+        <v>4.682758787199998</v>
       </c>
       <c r="S10">
-        <v>0.04223881293789519</v>
+        <v>0.02417509882653851</v>
       </c>
       <c r="T10">
-        <v>0.04223881293789519</v>
+        <v>0.02417509882653851</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.459828333333334</v>
+        <v>1.941983333333333</v>
       </c>
       <c r="H11">
-        <v>10.379485</v>
+        <v>5.825949999999999</v>
       </c>
       <c r="I11">
-        <v>0.3059493596262398</v>
+        <v>0.1970902650714284</v>
       </c>
       <c r="J11">
-        <v>0.3059493596262398</v>
+        <v>0.1970902650714283</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>2.143456</v>
       </c>
       <c r="O11">
-        <v>0.3169058824172986</v>
+        <v>0.327101565785771</v>
       </c>
       <c r="P11">
-        <v>0.3169058824172986</v>
+        <v>0.327101565785771</v>
       </c>
       <c r="Q11">
-        <v>2.471996600017778</v>
+        <v>1.387518609244444</v>
       </c>
       <c r="R11">
-        <v>22.24796940016</v>
+        <v>12.4876674832</v>
       </c>
       <c r="S11">
-        <v>0.09695715178736095</v>
+        <v>0.06446853430599687</v>
       </c>
       <c r="T11">
-        <v>0.09695715178736096</v>
+        <v>0.06446853430599687</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.459828333333334</v>
+        <v>1.941983333333333</v>
       </c>
       <c r="H12">
-        <v>10.379485</v>
+        <v>5.825949999999999</v>
       </c>
       <c r="I12">
-        <v>0.3059493596262398</v>
+        <v>0.1970902650714284</v>
       </c>
       <c r="J12">
-        <v>0.3059493596262398</v>
+        <v>0.1970902650714283</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.194243666666667</v>
+        <v>1.145196333333333</v>
       </c>
       <c r="N12">
-        <v>3.582731</v>
+        <v>3.435589</v>
       </c>
       <c r="O12">
-        <v>0.529699946730332</v>
+        <v>0.5242871984759059</v>
       </c>
       <c r="P12">
-        <v>0.529699946730332</v>
+        <v>0.5242871984759059</v>
       </c>
       <c r="Q12">
-        <v>4.131878074837223</v>
+        <v>2.223952192727777</v>
       </c>
       <c r="R12">
-        <v>37.186902673535</v>
+        <v>20.01556973455</v>
       </c>
       <c r="S12">
-        <v>0.1620613594961984</v>
+        <v>0.1033319029211729</v>
       </c>
       <c r="T12">
-        <v>0.1620613594961984</v>
+        <v>0.1033319029211728</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.459828333333334</v>
+        <v>1.941983333333333</v>
       </c>
       <c r="H13">
-        <v>10.379485</v>
+        <v>5.825949999999999</v>
       </c>
       <c r="I13">
-        <v>0.3059493596262398</v>
+        <v>0.1970902650714284</v>
       </c>
       <c r="J13">
-        <v>0.3059493596262398</v>
+        <v>0.1970902650714283</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.034576</v>
+        <v>0.05668500000000001</v>
       </c>
       <c r="N13">
-        <v>0.103728</v>
+        <v>0.170055</v>
       </c>
       <c r="O13">
-        <v>0.01533598700947514</v>
+        <v>0.02595120066364754</v>
       </c>
       <c r="P13">
-        <v>0.01533598700947514</v>
+        <v>0.02595120066364754</v>
       </c>
       <c r="Q13">
-        <v>0.1196270244533334</v>
+        <v>0.11008132525</v>
       </c>
       <c r="R13">
-        <v>1.07664322008</v>
+        <v>0.9907319272499999</v>
       </c>
       <c r="S13">
-        <v>0.004692035404785252</v>
+        <v>0.005114729017720121</v>
       </c>
       <c r="T13">
-        <v>0.004692035404785252</v>
+        <v>0.005114729017720121</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.09760766666666666</v>
+        <v>0.182832</v>
       </c>
       <c r="H14">
-        <v>0.292823</v>
+        <v>0.548496</v>
       </c>
       <c r="I14">
-        <v>0.008631353996256501</v>
+        <v>0.01855546683899075</v>
       </c>
       <c r="J14">
-        <v>0.008631353996256502</v>
+        <v>0.01855546683899075</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.3112613333333333</v>
+        <v>0.2679253333333333</v>
       </c>
       <c r="N14">
-        <v>0.9337839999999999</v>
+        <v>0.8037759999999999</v>
       </c>
       <c r="O14">
-        <v>0.1380581838428943</v>
+        <v>0.1226600350746756</v>
       </c>
       <c r="P14">
-        <v>0.1380581838428943</v>
+        <v>0.1226600350746756</v>
       </c>
       <c r="Q14">
-        <v>0.03038149247022222</v>
+        <v>0.04898532454399999</v>
       </c>
       <c r="R14">
-        <v>0.273433432232</v>
+        <v>0.440867920896</v>
       </c>
       <c r="S14">
-        <v>0.00119162905682828</v>
+        <v>0.002276014213297586</v>
       </c>
       <c r="T14">
-        <v>0.00119162905682828</v>
+        <v>0.002276014213297586</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.09760766666666666</v>
+        <v>0.182832</v>
       </c>
       <c r="H15">
-        <v>0.292823</v>
+        <v>0.548496</v>
       </c>
       <c r="I15">
-        <v>0.008631353996256501</v>
+        <v>0.01855546683899075</v>
       </c>
       <c r="J15">
-        <v>0.008631353996256502</v>
+        <v>0.01855546683899075</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>2.143456</v>
       </c>
       <c r="O15">
-        <v>0.3169058824172986</v>
+        <v>0.327101565785771</v>
       </c>
       <c r="P15">
-        <v>0.3169058824172986</v>
+        <v>0.327101565785771</v>
       </c>
       <c r="Q15">
-        <v>0.06973924625422222</v>
+        <v>0.130630782464</v>
       </c>
       <c r="R15">
-        <v>0.627653216288</v>
+        <v>1.175677042176</v>
       </c>
       <c r="S15">
-        <v>0.002735326854639742</v>
+        <v>0.006069522256919826</v>
       </c>
       <c r="T15">
-        <v>0.002735326854639744</v>
+        <v>0.006069522256919827</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.09760766666666666</v>
+        <v>0.182832</v>
       </c>
       <c r="H16">
-        <v>0.292823</v>
+        <v>0.548496</v>
       </c>
       <c r="I16">
-        <v>0.008631353996256501</v>
+        <v>0.01855546683899075</v>
       </c>
       <c r="J16">
-        <v>0.008631353996256502</v>
+        <v>0.01855546683899075</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.194243666666667</v>
+        <v>1.145196333333333</v>
       </c>
       <c r="N16">
-        <v>3.582731</v>
+        <v>3.435589</v>
       </c>
       <c r="O16">
-        <v>0.529699946730332</v>
+        <v>0.5242871984759059</v>
       </c>
       <c r="P16">
-        <v>0.529699946730332</v>
+        <v>0.5242871984759059</v>
       </c>
       <c r="Q16">
-        <v>0.1165673377347778</v>
+        <v>0.209378536016</v>
       </c>
       <c r="R16">
-        <v>1.049106039613</v>
+        <v>1.884406824144</v>
       </c>
       <c r="S16">
-        <v>0.004572027752027707</v>
+        <v>0.009728393725427036</v>
       </c>
       <c r="T16">
-        <v>0.004572027752027708</v>
+        <v>0.009728393725427036</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.09760766666666666</v>
+        <v>0.182832</v>
       </c>
       <c r="H17">
-        <v>0.292823</v>
+        <v>0.548496</v>
       </c>
       <c r="I17">
-        <v>0.008631353996256501</v>
+        <v>0.01855546683899075</v>
       </c>
       <c r="J17">
-        <v>0.008631353996256502</v>
+        <v>0.01855546683899075</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.034576</v>
+        <v>0.05668500000000001</v>
       </c>
       <c r="N17">
-        <v>0.103728</v>
+        <v>0.170055</v>
       </c>
       <c r="O17">
-        <v>0.01533598700947514</v>
+        <v>0.02595120066364754</v>
       </c>
       <c r="P17">
-        <v>0.01533598700947514</v>
+        <v>0.02595120066364754</v>
       </c>
       <c r="Q17">
-        <v>0.003374882682666667</v>
+        <v>0.01036383192</v>
       </c>
       <c r="R17">
-        <v>0.030373944144</v>
+        <v>0.09327448728</v>
       </c>
       <c r="S17">
-        <v>0.000132370332760771</v>
+        <v>0.0004815366433463067</v>
       </c>
       <c r="T17">
-        <v>0.0001323703327607711</v>
+        <v>0.0004815366433463067</v>
       </c>
     </row>
   </sheetData>
